--- a/Rapport/tableau des response.xlsx
+++ b/Rapport/tableau des response.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1d73ca242a620d5/Education/Documents/IUT Première année/S2/Methode numérique/SAE2.02_graphe_mangin215u_simonin89u/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1d73ca242a620d5/Education/Documents/IUT Première année/S2/Methode numérique/SAE2.02_graphe_mangin215u_simonin89u/Rapport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DF2E1D6CC0C4648BBE6B505001AA95E00521B16D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6523575A-5553-4321-AF37-0E704FFEB1B8}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_DF2E1D6CC0C4648BBE6B505001AA95E00521B16D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083B5C1C-D0DB-42EF-8E46-60A04C7E4AA9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,6 +78,2167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Représentation du temps par graphe pour chaque algorithme en nanoseconde</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new sheet'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps moyen de Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new sheet'!$A$2:$A$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new sheet'!$B$2:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1360400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12953700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3479200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5188400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4458100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5554200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10996900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11854000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11522800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7901800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8523600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33554900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25045500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29151500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29547800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32642900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61723200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62590600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67542400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61874200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71373200</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>187100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>209700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>183600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>211200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>204600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>116106100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118509500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116674400</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>116073400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118068700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>203100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>207900</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>202000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>201300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>206007100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>201660000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>220632200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>206291200</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>213186800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>321700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>318200</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>321000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>317500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>320800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>316354700</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330467000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>316369500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>329087400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>322602100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>733200</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>541700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>554500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>485200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>470100</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>492278600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>471286100</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>475658700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>468084400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>473452700</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>669700</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>706400</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>716000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>699400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>681000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>671261800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>678299000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>708974100</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>657525200</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>672643200</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>930700</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>931100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>954100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>932900</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>943900</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>105300</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39F5-4DB6-BC8B-2122FCE09383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new sheet'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps moyen de BellmanFord</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new sheet'!$A$2:$A$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new sheet'!$C$2:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>434400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>897400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>773400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1021800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>584200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2067800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2261400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2408100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2241000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2868400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2732800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2780300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2197400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2378200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3486700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3618200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4032000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3507500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3401300</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49900</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5636800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5546000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5395200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5333400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5549400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8125000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8130500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9135100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9364900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8404300</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>92800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>129300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>86600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10819200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11311700</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12857300</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11113900</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10728100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>152900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>168800</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>121700</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>117500</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>116900</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14949000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16133200</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13947600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13733400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13636600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>140800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>146800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>147600</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>141700</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>145300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18968700</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>19812600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18312600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17225900</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20121400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>183200</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>222100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>199900</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>184900</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60900</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39F5-4DB6-BC8B-2122FCE09383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="718284703"/>
+        <c:axId val="718277215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="718284703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718277215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="718277215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718284703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E968F7-7DBF-F451-0711-7687729AEA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,7 +2540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1453,5 +3616,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rapport/tableau des response.xlsx
+++ b/Rapport/tableau des response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1d73ca242a620d5/Education/Documents/IUT Première année/S2/Methode numérique/SAE2.02_graphe_mangin215u_simonin89u/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_390A8C87C00415A05A095EB10220063CF94D713A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0958644-15D4-43C0-9231-20F60B23D593}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_67E2AC88C00415A05A095E8362A2578AF537302F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42729F5-206F-4143-858F-3F3487C3F0C1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
+    <t>Temps Dijkstra</t>
+  </si>
+  <si>
+    <t>Temps BellmanFord</t>
+  </si>
+  <si>
     <t>Graphe1.txt</t>
   </si>
   <si>
@@ -320,12 +326,6 @@
   </si>
   <si>
     <t>Graphe_exemple1.txt</t>
-  </si>
-  <si>
-    <t>Temps BellmanFord</t>
-  </si>
-  <si>
-    <t>Temps Dijkstra</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -364,10 +364,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,24 +683,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>98</v>
@@ -709,1442 +708,1442 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1374200</v>
-      </c>
-      <c r="C2" s="2">
-        <v>592800</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1547900</v>
+      </c>
+      <c r="C2">
+        <v>1043000</v>
       </c>
       <c r="D2" s="1">
         <f>B2/C2</f>
-        <v>2.3181511470985154</v>
+        <v>1.484084372003835</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>29835300</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1996300</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>32018100</v>
+      </c>
+      <c r="C3">
+        <v>3104600</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D66" si="0">B3/C3</f>
-        <v>14.945298802785153</v>
+        <v>10.313116021387618</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7483200</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1930900</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>11224600</v>
+      </c>
+      <c r="C4">
+        <v>2478200</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>3.8754984722150292</v>
+        <v>4.5293358082479216</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>12286100</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1742500</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>13611400</v>
+      </c>
+      <c r="C5">
+        <v>2811000</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>7.0508464849354375</v>
+        <v>4.8421913909640697</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10542300</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1797900</v>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10480200</v>
+      </c>
+      <c r="C6">
+        <v>3180500</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>5.8636742866677789</v>
+        <v>3.29514227322748</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9977000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1746800</v>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10583300</v>
+      </c>
+      <c r="C7">
+        <v>3328400</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>5.7115869017632246</v>
+        <v>3.1796959500060087</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>63000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>56700</v>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>68700</v>
+      </c>
+      <c r="C8">
+        <v>106100</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1.1111111111111112</v>
+        <v>0.64750235626767205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>75700</v>
-      </c>
-      <c r="C9" s="2">
-        <v>52900</v>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>132900</v>
+      </c>
+      <c r="C9">
+        <v>97200</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1.4310018903591681</v>
+        <v>1.367283950617284</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>57000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>54400</v>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>63700</v>
+      </c>
+      <c r="C10">
+        <v>117600</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1.0477941176470589</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>56700</v>
-      </c>
-      <c r="C11" s="2">
-        <v>55900</v>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>51600</v>
+      </c>
+      <c r="C11">
+        <v>104300</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0143112701252237</v>
+        <v>0.49472674976030678</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>58100</v>
-      </c>
-      <c r="C12" s="2">
-        <v>66100</v>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>56900</v>
+      </c>
+      <c r="C12">
+        <v>117400</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.87897125567322243</v>
+        <v>0.48466780238500851</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>59400</v>
-      </c>
-      <c r="C13" s="2">
-        <v>91300</v>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>56400</v>
+      </c>
+      <c r="C13">
+        <v>100400</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.6506024096385542</v>
+        <v>0.56175298804780871</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>59674100</v>
-      </c>
-      <c r="C14" s="2">
-        <v>6381600</v>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>28775000</v>
+      </c>
+      <c r="C14">
+        <v>13919400</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>9.3509621411558221</v>
+        <v>2.0672586462060147</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>33444300</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7069700</v>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>41438500</v>
+      </c>
+      <c r="C15">
+        <v>15675500</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>4.7306533516273674</v>
+        <v>2.643520142898153</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>27597600</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5153700</v>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>33021200</v>
+      </c>
+      <c r="C16">
+        <v>11873400</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>5.3549100646137724</v>
+        <v>2.7811073492007345</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>31274400</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5683900</v>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>38366500</v>
+      </c>
+      <c r="C17">
+        <v>14779200</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>5.5022783652069878</v>
+        <v>2.5959794846811737</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>24085800</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4804800</v>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>31769800</v>
+      </c>
+      <c r="C18">
+        <v>10258600</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>5.0128621378621379</v>
+        <v>3.0968943130641606</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>120300</v>
-      </c>
-      <c r="C19" s="2">
-        <v>95600</v>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>211900</v>
+      </c>
+      <c r="C19">
+        <v>118000</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1.25836820083682</v>
+        <v>1.7957627118644068</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>116600</v>
-      </c>
-      <c r="C20" s="2">
-        <v>120100</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>183900</v>
+      </c>
+      <c r="C20">
+        <v>163400</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>0.97085761865112408</v>
+        <v>1.1254589963280295</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>110200</v>
-      </c>
-      <c r="C21" s="2">
-        <v>103300</v>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>112300</v>
+      </c>
+      <c r="C21">
+        <v>106000</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0667957405614714</v>
+        <v>1.0594339622641509</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>117900</v>
-      </c>
-      <c r="C22" s="2">
-        <v>117400</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>175700</v>
+      </c>
+      <c r="C22">
+        <v>147700</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>1.004258943781942</v>
+        <v>1.1895734597156398</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>310800</v>
-      </c>
-      <c r="C23" s="2">
-        <v>130500</v>
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>355700</v>
+      </c>
+      <c r="C23">
+        <v>163000</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>2.3816091954022989</v>
+        <v>2.1822085889570553</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>97380700</v>
-      </c>
-      <c r="C24" s="2">
-        <v>8769600</v>
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>107877200</v>
+      </c>
+      <c r="C24">
+        <v>10114700</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>11.104349115124977</v>
+        <v>10.665387999644082</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>90350300</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9571700</v>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>85462200</v>
+      </c>
+      <c r="C25">
+        <v>11335000</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>9.4393158999968652</v>
+        <v>7.539673577415086</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>216565600</v>
-      </c>
-      <c r="C26" s="2">
-        <v>8300300</v>
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>130767900</v>
+      </c>
+      <c r="C26">
+        <v>8675200</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>26.091297904895004</v>
+        <v>15.073761988196237</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>84943400</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10463700</v>
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>96608000</v>
+      </c>
+      <c r="C27">
+        <v>8400100</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>8.1179124019228386</v>
+        <v>11.500815466482543</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>75466700</v>
-      </c>
-      <c r="C28" s="2">
-        <v>13032300</v>
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>62232000</v>
+      </c>
+      <c r="C28">
+        <v>8190400</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>5.7907430000844053</v>
+        <v>7.5981637038484076</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>169100</v>
-      </c>
-      <c r="C29" s="2">
-        <v>187300</v>
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>222500</v>
+      </c>
+      <c r="C29">
+        <v>106500</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>0.90282968499733052</v>
+        <v>2.0892018779342725</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>175200</v>
-      </c>
-      <c r="C30" s="2">
-        <v>248700</v>
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>233800</v>
+      </c>
+      <c r="C30">
+        <v>144600</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>0.70446320868516288</v>
+        <v>1.6168741355463347</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>255900</v>
-      </c>
-      <c r="C31" s="2">
-        <v>249900</v>
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>139000</v>
+      </c>
+      <c r="C31">
+        <v>145700</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>1.0240096038415367</v>
+        <v>0.95401509951956076</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>278200</v>
-      </c>
-      <c r="C32" s="2">
-        <v>183800</v>
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>179600</v>
+      </c>
+      <c r="C32">
+        <v>104900</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>1.5136017410228508</v>
+        <v>1.7121067683508102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>262700</v>
-      </c>
-      <c r="C33" s="2">
-        <v>236000</v>
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>203400</v>
+      </c>
+      <c r="C33">
+        <v>138300</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>1.1131355932203391</v>
+        <v>1.4707158351409979</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4800</v>
-      </c>
-      <c r="C34" s="2">
-        <v>21300</v>
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>6300</v>
+      </c>
+      <c r="C34">
+        <v>12100</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>0.22535211267605634</v>
+        <v>0.52066115702479343</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>185344000</v>
-      </c>
-      <c r="C35" s="2">
-        <v>28353300</v>
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>169264100</v>
+      </c>
+      <c r="C35">
+        <v>16168200</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>6.5369463166544985</v>
+        <v>10.468951398424068</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>217591800</v>
-      </c>
-      <c r="C36" s="2">
-        <v>19432000</v>
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>170591400</v>
+      </c>
+      <c r="C36">
+        <v>17613400</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>11.19760189378345</v>
+        <v>9.6853191320244818</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>245432800</v>
-      </c>
-      <c r="C37" s="2">
-        <v>26310700</v>
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>171893500</v>
+      </c>
+      <c r="C37">
+        <v>17221900</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>9.3282504836435365</v>
+        <v>9.9810996463804802</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>201958400</v>
-      </c>
-      <c r="C38" s="2">
-        <v>35914700</v>
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>145850000</v>
+      </c>
+      <c r="C38">
+        <v>27548400</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>5.6232796041732218</v>
+        <v>5.2943183633169255</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>223372000</v>
-      </c>
-      <c r="C39" s="2">
-        <v>27845700</v>
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>158490500</v>
+      </c>
+      <c r="C39">
+        <v>28773400</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>8.0217771505115696</v>
+        <v>5.5082298233785369</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>332600</v>
-      </c>
-      <c r="C40" s="2">
-        <v>527600</v>
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>260600</v>
+      </c>
+      <c r="C40">
+        <v>515000</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>0.63040181956027297</v>
+        <v>0.50601941747572821</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
-        <v>338700</v>
-      </c>
-      <c r="C41" s="2">
-        <v>377500</v>
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>264200</v>
+      </c>
+      <c r="C41">
+        <v>374600</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>0.89721854304635762</v>
+        <v>0.70528563801388144</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <v>318700</v>
-      </c>
-      <c r="C42" s="2">
-        <v>376200</v>
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>271200</v>
+      </c>
+      <c r="C42">
+        <v>360900</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>0.84715576820839977</v>
+        <v>0.75145469659185371</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
-        <v>339500</v>
-      </c>
-      <c r="C43" s="2">
-        <v>436800</v>
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>419900</v>
+      </c>
+      <c r="C43">
+        <v>439000</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>0.77724358974358976</v>
+        <v>0.95649202733485195</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
-        <v>350700</v>
-      </c>
-      <c r="C44" s="2">
-        <v>357100</v>
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>414600</v>
+      </c>
+      <c r="C44">
+        <v>352700</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>0.98207784934192099</v>
+        <v>1.1755032605613835</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <v>6700</v>
-      </c>
-      <c r="C45" s="2">
-        <v>22700</v>
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>5700</v>
+      </c>
+      <c r="C45">
+        <v>22000</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>0.29515418502202645</v>
+        <v>0.25909090909090909</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
-        <v>365683400</v>
-      </c>
-      <c r="C46" s="2">
-        <v>22800700</v>
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>305589900</v>
+      </c>
+      <c r="C46">
+        <v>34910800</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>16.038253211524207</v>
+        <v>8.7534487894863489</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
-        <v>382917500</v>
-      </c>
-      <c r="C47" s="2">
-        <v>26245000</v>
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>296189800</v>
+      </c>
+      <c r="C47">
+        <v>52759100</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>14.590112402362355</v>
+        <v>5.6140040296365932</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
-        <v>405019400</v>
-      </c>
-      <c r="C48" s="2">
-        <v>22333200</v>
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>302652500</v>
+      </c>
+      <c r="C48">
+        <v>53341100</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>18.135305285404687</v>
+        <v>5.673908112131171</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
-        <v>405984200</v>
-      </c>
-      <c r="C49" s="2">
-        <v>36143900</v>
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>321879200</v>
+      </c>
+      <c r="C49">
+        <v>44285800</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>11.232440328796837</v>
+        <v>7.2682259324659375</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
-        <v>617513900</v>
-      </c>
-      <c r="C50" s="2">
-        <v>37940400</v>
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>282717000</v>
+      </c>
+      <c r="C50">
+        <v>24644500</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>16.275893243086525</v>
+        <v>11.471809125768427</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
-        <v>569200</v>
-      </c>
-      <c r="C51" s="2">
-        <v>653600</v>
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>455400</v>
+      </c>
+      <c r="C51">
+        <v>323800</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>0.87086903304773566</v>
+        <v>1.4064237183446573</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
-        <v>567300</v>
-      </c>
-      <c r="C52" s="2">
-        <v>476300</v>
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>461400</v>
+      </c>
+      <c r="C52">
+        <v>251000</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>1.1910560571068654</v>
+        <v>1.8382470119521912</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
-        <v>549800</v>
-      </c>
-      <c r="C53" s="2">
-        <v>466600</v>
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>448100</v>
+      </c>
+      <c r="C53">
+        <v>244500</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>1.1783111873124732</v>
+        <v>1.8327198364008179</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2">
-        <v>578000</v>
-      </c>
-      <c r="C54" s="2">
-        <v>480200</v>
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>462800</v>
+      </c>
+      <c r="C54">
+        <v>246500</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>1.2036651395251978</v>
+        <v>1.8774847870182556</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2">
-        <v>551600</v>
-      </c>
-      <c r="C55" s="2">
-        <v>485600</v>
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>459900</v>
+      </c>
+      <c r="C55">
+        <v>415300</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>1.1359143327841845</v>
+        <v>1.1073922465687456</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
-        <v>793658900</v>
-      </c>
-      <c r="C56" s="2">
-        <v>35941900</v>
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>734381800</v>
+      </c>
+      <c r="C56">
+        <v>36341200</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>22.081717994875063</v>
+        <v>20.20796781614256</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2">
-        <v>695145400</v>
-      </c>
-      <c r="C57" s="2">
-        <v>40871500</v>
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>558823200</v>
+      </c>
+      <c r="C57">
+        <v>56373700</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>17.008071639161763</v>
+        <v>9.912835240546567</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2">
-        <v>956063000</v>
-      </c>
-      <c r="C58" s="2">
-        <v>36075000</v>
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>572355300</v>
+      </c>
+      <c r="C58">
+        <v>31548300</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>26.502092862092862</v>
+        <v>18.142191496847691</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2">
-        <v>853706300</v>
-      </c>
-      <c r="C59" s="2">
-        <v>31110800</v>
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>988962400</v>
+      </c>
+      <c r="C59">
+        <v>74021600</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>27.440834051197655</v>
+        <v>13.360456947701753</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
-        <v>841309100</v>
-      </c>
-      <c r="C60" s="2">
-        <v>62620900</v>
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>846546200</v>
+      </c>
+      <c r="C60">
+        <v>69078000</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>13.434957019142171</v>
+        <v>12.254932105735545</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1005600</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1006700</v>
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>1326100</v>
+      </c>
+      <c r="C61">
+        <v>1539600</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>0.99890732094963741</v>
+        <v>0.86132761756300336</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
-        <v>967300</v>
-      </c>
-      <c r="C62" s="2">
-        <v>686300</v>
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1566100</v>
+      </c>
+      <c r="C62">
+        <v>935500</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>1.4094419350138423</v>
+        <v>1.6740780331373597</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2">
-        <v>963500</v>
-      </c>
-      <c r="C63" s="2">
-        <v>690400</v>
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>1543000</v>
+      </c>
+      <c r="C63">
+        <v>667400</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>1.3955677867902665</v>
+        <v>2.3119568474677856</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
-        <v>978700</v>
-      </c>
-      <c r="C64" s="2">
-        <v>678200</v>
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>1571400</v>
+      </c>
+      <c r="C64">
+        <v>654400</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>1.4430846358006488</v>
+        <v>2.4012836185819073</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1119700</v>
-      </c>
-      <c r="C65" s="2">
-        <v>680500</v>
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>1549800</v>
+      </c>
+      <c r="C65">
+        <v>683600</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>1.6454077883908891</v>
+        <v>2.2671152720889407</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1660105500</v>
-      </c>
-      <c r="C66" s="2">
-        <v>62286200</v>
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>900484700</v>
+      </c>
+      <c r="C66">
+        <v>101750900</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>26.652862110708313</v>
+        <v>8.8498942024100025</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1165515700</v>
-      </c>
-      <c r="C67" s="2">
-        <v>93080000</v>
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>1195560800</v>
+      </c>
+      <c r="C67">
+        <v>103258700</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" ref="D67:D97" si="1">B67/C67</f>
-        <v>12.521655565105286</v>
+        <v>11.578305750508189</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1338169600</v>
-      </c>
-      <c r="C68" s="2">
-        <v>44047200</v>
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>1034602000</v>
+      </c>
+      <c r="C68">
+        <v>80693800</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="1"/>
-        <v>30.380355618518315</v>
+        <v>12.821331998245219</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1603402900</v>
-      </c>
-      <c r="C69" s="2">
-        <v>66247000</v>
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>1353096600</v>
+      </c>
+      <c r="C69">
+        <v>49481000</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
-        <v>24.203403927725031</v>
+        <v>27.345781208948889</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2">
-        <v>1383221700</v>
-      </c>
-      <c r="C70" s="2">
-        <v>46149700</v>
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>1025338200</v>
+      </c>
+      <c r="C70">
+        <v>92881200</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="1"/>
-        <v>29.972496029226626</v>
+        <v>11.039243679022235</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
-        <v>2165700</v>
-      </c>
-      <c r="C71" s="2">
-        <v>935200</v>
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>2403900</v>
+      </c>
+      <c r="C71">
+        <v>865700</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="1"/>
-        <v>2.3157613344739092</v>
+        <v>2.776828000462054</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
-        <v>2089700</v>
-      </c>
-      <c r="C72" s="2">
-        <v>933200</v>
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>2378900</v>
+      </c>
+      <c r="C72">
+        <v>1242800</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="1"/>
-        <v>2.2392841834547794</v>
+        <v>1.9141454779530094</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
-        <v>1868300</v>
-      </c>
-      <c r="C73" s="2">
-        <v>907400</v>
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>2399700</v>
+      </c>
+      <c r="C73">
+        <v>812600</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="1"/>
-        <v>2.0589596649768569</v>
+        <v>2.953113462958405</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1930200</v>
-      </c>
-      <c r="C74" s="2">
-        <v>923200</v>
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>3305400</v>
+      </c>
+      <c r="C74">
+        <v>872800</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="1"/>
-        <v>2.0907712305025998</v>
+        <v>3.787121906507791</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1872700</v>
-      </c>
-      <c r="C75" s="2">
-        <v>898500</v>
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>2273600</v>
+      </c>
+      <c r="C75">
+        <v>847100</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="1"/>
-        <v>2.0842515303283249</v>
+        <v>2.6839806398300081</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>1936958500</v>
-      </c>
-      <c r="C76" s="2">
-        <v>57463700</v>
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>1391717100</v>
+      </c>
+      <c r="C76">
+        <v>140189200</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
-        <v>33.707514483056258</v>
+        <v>9.9274202292330642</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>2040604300</v>
-      </c>
-      <c r="C77" s="2">
-        <v>76753100</v>
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>1678553200</v>
+      </c>
+      <c r="C77">
+        <v>114711100</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
-        <v>26.586604319564941</v>
+        <v>14.632875109732188</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2027255500</v>
-      </c>
-      <c r="C78" s="2">
-        <v>84016600</v>
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>1767765600</v>
+      </c>
+      <c r="C78">
+        <v>111087200</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
-        <v>24.12922565302571</v>
+        <v>15.913314945376245</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
-        <v>2079997200</v>
-      </c>
-      <c r="C79" s="2">
-        <v>64253600</v>
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>1650675300</v>
+      </c>
+      <c r="C79">
+        <v>67011700</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
-        <v>32.37168345431229</v>
+        <v>24.632643254834605</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
-        <v>-2144946996</v>
-      </c>
-      <c r="C80" s="2">
-        <v>85481300</v>
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>1851168300</v>
+      </c>
+      <c r="C80">
+        <v>122940900</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
-        <v>-25.092587454800057</v>
+        <v>15.057383669714472</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
-        <v>2062700</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1218900</v>
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>2621800</v>
+      </c>
+      <c r="C81">
+        <v>1129000</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
-        <v>1.6922635162851751</v>
+        <v>2.3222320637732508</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1974000</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1193700</v>
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>2862900</v>
+      </c>
+      <c r="C82">
+        <v>1212900</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
-        <v>1.6536818296054285</v>
+        <v>2.3603759584466979</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
-        <v>1935400</v>
-      </c>
-      <c r="C83" s="2">
-        <v>1240000</v>
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>2757400</v>
+      </c>
+      <c r="C83">
+        <v>1155400</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="1"/>
-        <v>1.5608064516129032</v>
+        <v>2.3865328024926433</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
-        <v>1895900</v>
-      </c>
-      <c r="C84" s="2">
-        <v>1222100</v>
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>2590400</v>
+      </c>
+      <c r="C84">
+        <v>1214000</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="1"/>
-        <v>1.5513460436952786</v>
+        <v>2.1337726523887972</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
-        <v>3259400</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1160700</v>
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>3615900</v>
+      </c>
+      <c r="C85">
+        <v>1092700</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
-        <v>2.80813302317567</v>
+        <v>3.3091424910771483</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
-        <v>-2048710596</v>
-      </c>
-      <c r="C86" s="2">
-        <v>137665300</v>
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>-1226442096</v>
+      </c>
+      <c r="C86">
+        <v>174627800</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="1"/>
-        <v>-14.881822768700609</v>
+        <v>-7.0231778445356356</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
-        <v>-1655463796</v>
-      </c>
-      <c r="C87" s="2">
-        <v>128401200</v>
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>-1445648796</v>
+      </c>
+      <c r="C87">
+        <v>91706100</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="1"/>
-        <v>-12.892899723678594</v>
+        <v>-15.763932780916427</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
-        <v>-1282187596</v>
-      </c>
-      <c r="C88" s="2">
-        <v>133692500</v>
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>-1762844696</v>
+      </c>
+      <c r="C88">
+        <v>143440000</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="1"/>
-        <v>-9.5905723656899227</v>
+        <v>-12.289770607919687</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
-        <v>-1505067096</v>
-      </c>
-      <c r="C89" s="2">
-        <v>117673600</v>
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>-1571687596</v>
+      </c>
+      <c r="C89">
+        <v>170253200</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="1"/>
-        <v>-12.790184850297774</v>
+        <v>-9.2314716903999461</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
-        <v>-1396591396</v>
-      </c>
-      <c r="C90" s="2">
-        <v>162110800</v>
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>-1879801196</v>
+      </c>
+      <c r="C90">
+        <v>142593600</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="1"/>
-        <v>-8.6150422797247312</v>
+        <v>-13.182928238013487</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
-        <v>2761900</v>
-      </c>
-      <c r="C91" s="2">
-        <v>1451200</v>
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>2990400</v>
+      </c>
+      <c r="C91">
+        <v>1295200</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="1"/>
-        <v>1.903183572216097</v>
+        <v>2.3088326127239038</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
-        <v>2599400</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1430300</v>
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>2852900</v>
+      </c>
+      <c r="C92">
+        <v>1269700</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="1"/>
-        <v>1.8173809690274767</v>
+        <v>2.2469087185949439</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
-        <v>2574100</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1643500</v>
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>3220900</v>
+      </c>
+      <c r="C93">
+        <v>1310000</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="1"/>
-        <v>1.5662306054152724</v>
+        <v>2.458702290076336</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
-        <v>2713700</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1415900</v>
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>2763200</v>
+      </c>
+      <c r="C94">
+        <v>1274500</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="1"/>
-        <v>1.9165901546719402</v>
+        <v>2.1680659081992939</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
-        <v>2652100</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1474600</v>
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>3297500</v>
+      </c>
+      <c r="C95">
+        <v>1349300</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="1"/>
-        <v>1.7985216329852163</v>
+        <v>2.4438597791447418</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>7300</v>
-      </c>
-      <c r="C96" s="2">
-        <v>20200</v>
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>12600</v>
+      </c>
+      <c r="C96">
+        <v>18000</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="1"/>
-        <v>0.36138613861386137</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
-        <v>5500</v>
-      </c>
-      <c r="C97" s="2">
-        <v>16100</v>
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>6800</v>
+      </c>
+      <c r="C97">
+        <v>14400</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="1"/>
-        <v>0.34161490683229812</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
   </sheetData>
